--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf10</t>
   </si>
   <si>
     <t>Tnfrsf11b</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.3292183740785</v>
+        <v>24.398486</v>
       </c>
       <c r="H2">
-        <v>24.3292183740785</v>
+        <v>48.796972</v>
       </c>
       <c r="I2">
-        <v>0.5193559221426817</v>
+        <v>0.4878637722507929</v>
       </c>
       <c r="J2">
-        <v>0.5193559221426817</v>
+        <v>0.3884708362220679</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.99253064082717</v>
+        <v>0.102926</v>
       </c>
       <c r="N2">
-        <v>1.99253064082717</v>
+        <v>0.205852</v>
       </c>
       <c r="O2">
-        <v>0.8545341732230145</v>
+        <v>0.03821605677617539</v>
       </c>
       <c r="P2">
-        <v>0.8545341732230145</v>
+        <v>0.02724178813968781</v>
       </c>
       <c r="Q2">
-        <v>48.47671307772679</v>
+        <v>2.511238570036</v>
       </c>
       <c r="R2">
-        <v>48.47671307772679</v>
+        <v>10.044954280144</v>
       </c>
       <c r="S2">
-        <v>0.4438073835366728</v>
+        <v>0.0186442296193754</v>
       </c>
       <c r="T2">
-        <v>0.4438073835366728</v>
+        <v>0.01058264021880893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.3292183740785</v>
+        <v>24.398486</v>
       </c>
       <c r="H3">
-        <v>24.3292183740785</v>
+        <v>48.796972</v>
       </c>
       <c r="I3">
-        <v>0.5193559221426817</v>
+        <v>0.4878637722507929</v>
       </c>
       <c r="J3">
-        <v>0.5193559221426817</v>
+        <v>0.3884708362220679</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.339184933884157</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N3">
-        <v>0.339184933884157</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O3">
-        <v>0.1454658267769855</v>
+        <v>0.8056937070514454</v>
       </c>
       <c r="P3">
-        <v>0.1454658267769855</v>
+        <v>0.8614914433031574</v>
       </c>
       <c r="Q3">
-        <v>8.252104325665034</v>
+        <v>52.94342963307066</v>
       </c>
       <c r="R3">
-        <v>8.252104325665034</v>
+        <v>317.660577798424</v>
       </c>
       <c r="S3">
-        <v>0.07554853860600888</v>
+        <v>0.3930687712008434</v>
       </c>
       <c r="T3">
-        <v>0.07554853860600888</v>
+        <v>0.3346643013781337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.05811797544006</v>
+        <v>24.398486</v>
       </c>
       <c r="H4">
-        <v>1.05811797544006</v>
+        <v>48.796972</v>
       </c>
       <c r="I4">
-        <v>0.02258764866264366</v>
+        <v>0.4878637722507929</v>
       </c>
       <c r="J4">
-        <v>0.02258764866264366</v>
+        <v>0.3884708362220679</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99253064082717</v>
+        <v>0.4203924999999999</v>
       </c>
       <c r="N4">
-        <v>1.99253064082717</v>
+        <v>0.8407849999999999</v>
       </c>
       <c r="O4">
-        <v>0.8545341732230145</v>
+        <v>0.1560902361723793</v>
       </c>
       <c r="P4">
-        <v>0.8545341732230145</v>
+        <v>0.1112667685571547</v>
       </c>
       <c r="Q4">
-        <v>2.108332487674331</v>
+        <v>10.256940525755</v>
       </c>
       <c r="R4">
-        <v>2.108332487674331</v>
+        <v>41.02776210302</v>
       </c>
       <c r="S4">
-        <v>0.01930191767498413</v>
+        <v>0.07615077143057414</v>
       </c>
       <c r="T4">
-        <v>0.01930191767498413</v>
+        <v>0.04322389462512518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,309 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.05811797544006</v>
+        <v>1.348156333333334</v>
       </c>
       <c r="H5">
-        <v>1.05811797544006</v>
+        <v>4.044469</v>
       </c>
       <c r="I5">
-        <v>0.02258764866264366</v>
+        <v>0.02695727244566722</v>
       </c>
       <c r="J5">
-        <v>0.02258764866264366</v>
+        <v>0.0321978637220406</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.339184933884157</v>
+        <v>0.102926</v>
       </c>
       <c r="N5">
-        <v>0.339184933884157</v>
+        <v>0.205852</v>
       </c>
       <c r="O5">
-        <v>0.1454658267769855</v>
+        <v>0.03821605677617539</v>
       </c>
       <c r="P5">
-        <v>0.1454658267769855</v>
+        <v>0.02724178813968781</v>
       </c>
       <c r="Q5">
-        <v>0.3588976755412748</v>
+        <v>0.1387603387646667</v>
       </c>
       <c r="R5">
-        <v>0.3588976755412748</v>
+        <v>0.8325620325880001</v>
       </c>
       <c r="S5">
-        <v>0.00328573098765953</v>
+        <v>0.001030200654314447</v>
       </c>
       <c r="T5">
-        <v>0.00328573098765953</v>
+        <v>0.0008771273820663699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.4964569719805</v>
+        <v>1.348156333333334</v>
       </c>
       <c r="H6">
-        <v>3.4964569719805</v>
+        <v>4.044469</v>
       </c>
       <c r="I6">
-        <v>0.07463888099462712</v>
+        <v>0.02695727244566722</v>
       </c>
       <c r="J6">
-        <v>0.07463888099462712</v>
+        <v>0.0321978637220406</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.99253064082717</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N6">
-        <v>1.99253064082717</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O6">
-        <v>0.8545341732230145</v>
+        <v>0.8056937070514454</v>
       </c>
       <c r="P6">
-        <v>0.8545341732230145</v>
+        <v>0.8614914433031574</v>
       </c>
       <c r="Q6">
-        <v>6.966797651004931</v>
+        <v>2.925428240433112</v>
       </c>
       <c r="R6">
-        <v>6.966797651004931</v>
+        <v>26.328854163898</v>
       </c>
       <c r="S6">
-        <v>0.06378147446103466</v>
+        <v>0.02171930476874541</v>
       </c>
       <c r="T6">
-        <v>0.06378147446103466</v>
+        <v>0.02773818408917913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.4964569719805</v>
+        <v>1.348156333333334</v>
       </c>
       <c r="H7">
-        <v>3.4964569719805</v>
+        <v>4.044469</v>
       </c>
       <c r="I7">
-        <v>0.07463888099462712</v>
+        <v>0.02695727244566722</v>
       </c>
       <c r="J7">
-        <v>0.07463888099462712</v>
+        <v>0.0321978637220406</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.339184933884157</v>
+        <v>0.4203924999999999</v>
       </c>
       <c r="N7">
-        <v>0.339184933884157</v>
+        <v>0.8407849999999999</v>
       </c>
       <c r="O7">
-        <v>0.1454658267769855</v>
+        <v>0.1560902361723793</v>
       </c>
       <c r="P7">
-        <v>0.1454658267769855</v>
+        <v>0.1112667685571547</v>
       </c>
       <c r="Q7">
-        <v>1.185945526870006</v>
+        <v>0.5667548113608334</v>
       </c>
       <c r="R7">
-        <v>1.185945526870006</v>
+        <v>3.400528868165</v>
       </c>
       <c r="S7">
-        <v>0.01085740653359246</v>
+        <v>0.004207767022607369</v>
       </c>
       <c r="T7">
-        <v>0.01085740653359246</v>
+        <v>0.003582552250795099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>17.961187811487</v>
+        <v>1.451834333333333</v>
       </c>
       <c r="H8">
-        <v>17.961187811487</v>
+        <v>4.355503000000001</v>
       </c>
       <c r="I8">
-        <v>0.3834175482000475</v>
+        <v>0.02903038223532457</v>
       </c>
       <c r="J8">
-        <v>0.3834175482000475</v>
+        <v>0.03467399355389768</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.99253064082717</v>
+        <v>0.102926</v>
       </c>
       <c r="N8">
-        <v>1.99253064082717</v>
+        <v>0.205852</v>
       </c>
       <c r="O8">
-        <v>0.8545341732230145</v>
+        <v>0.03821605677617539</v>
       </c>
       <c r="P8">
-        <v>0.8545341732230145</v>
+        <v>0.02724178813968781</v>
       </c>
       <c r="Q8">
-        <v>35.78821706003935</v>
+        <v>0.1494315005926667</v>
       </c>
       <c r="R8">
-        <v>35.78821706003935</v>
+        <v>0.8965890035560001</v>
       </c>
       <c r="S8">
-        <v>0.327643397550323</v>
+        <v>0.001109426735739237</v>
       </c>
       <c r="T8">
-        <v>0.327643397550323</v>
+        <v>0.0009445815863521814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.451834333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.355503000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.02903038223532457</v>
+      </c>
+      <c r="J9">
+        <v>0.03467399355389768</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.169947333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.509842000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.8056937070514454</v>
+      </c>
+      <c r="P9">
+        <v>0.8614914433031574</v>
+      </c>
+      <c r="Q9">
+        <v>3.150404040058445</v>
+      </c>
+      <c r="R9">
+        <v>28.35363636052601</v>
+      </c>
+      <c r="S9">
+        <v>0.02338959628029908</v>
+      </c>
+      <c r="T9">
+        <v>0.02987134875183169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.451834333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.355503000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.02903038223532457</v>
+      </c>
+      <c r="J10">
+        <v>0.03467399355389768</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4203924999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.8407849999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1560902361723793</v>
+      </c>
+      <c r="P10">
+        <v>0.1112667685571547</v>
+      </c>
+      <c r="Q10">
+        <v>0.6103402649758333</v>
+      </c>
+      <c r="R10">
+        <v>3.662041589855</v>
+      </c>
+      <c r="S10">
+        <v>0.004531359219286256</v>
+      </c>
+      <c r="T10">
+        <v>0.003858063215713808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.556636666666666</v>
+      </c>
+      <c r="H11">
+        <v>10.66991</v>
+      </c>
+      <c r="I11">
+        <v>0.0711172890287326</v>
+      </c>
+      <c r="J11">
+        <v>0.0849427472695274</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.102926</v>
+      </c>
+      <c r="N11">
+        <v>0.205852</v>
+      </c>
+      <c r="O11">
+        <v>0.03821605677617539</v>
+      </c>
+      <c r="P11">
+        <v>0.02724178813968781</v>
+      </c>
+      <c r="Q11">
+        <v>0.3660703855533333</v>
+      </c>
+      <c r="R11">
+        <v>2.19642231332</v>
+      </c>
+      <c r="S11">
+        <v>0.00271782235528972</v>
+      </c>
+      <c r="T11">
+        <v>0.00231399232511951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.556636666666666</v>
+      </c>
+      <c r="H12">
+        <v>10.66991</v>
+      </c>
+      <c r="I12">
+        <v>0.0711172890287326</v>
+      </c>
+      <c r="J12">
+        <v>0.0849427472695274</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.169947333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.509842000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.8056937070514454</v>
+      </c>
+      <c r="P12">
+        <v>0.8614914433031574</v>
+      </c>
+      <c r="Q12">
+        <v>7.717714250468889</v>
+      </c>
+      <c r="R12">
+        <v>69.45942825422</v>
+      </c>
+      <c r="S12">
+        <v>0.05729875223300866</v>
+      </c>
+      <c r="T12">
+        <v>0.07317744994336049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.556636666666666</v>
+      </c>
+      <c r="H13">
+        <v>10.66991</v>
+      </c>
+      <c r="I13">
+        <v>0.0711172890287326</v>
+      </c>
+      <c r="J13">
+        <v>0.0849427472695274</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4203924999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.8407849999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1560902361723793</v>
+      </c>
+      <c r="P13">
+        <v>0.1112667685571547</v>
+      </c>
+      <c r="Q13">
+        <v>1.495183379891666</v>
+      </c>
+      <c r="R13">
+        <v>8.971100279349999</v>
+      </c>
+      <c r="S13">
+        <v>0.01110071444043423</v>
+      </c>
+      <c r="T13">
+        <v>0.00945130500104739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>19.234617</v>
+      </c>
+      <c r="H14">
+        <v>57.703851</v>
+      </c>
+      <c r="I14">
+        <v>0.3846088157855053</v>
+      </c>
+      <c r="J14">
+        <v>0.459378160825299</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.102926</v>
+      </c>
+      <c r="N14">
+        <v>0.205852</v>
+      </c>
+      <c r="O14">
+        <v>0.03821605677617539</v>
+      </c>
+      <c r="P14">
+        <v>0.02724178813968781</v>
+      </c>
+      <c r="Q14">
+        <v>1.979742189342</v>
+      </c>
+      <c r="R14">
+        <v>11.878453136052</v>
+      </c>
+      <c r="S14">
+        <v>0.01469823234067645</v>
+      </c>
+      <c r="T14">
+        <v>0.01251428253320223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>19.234617</v>
+      </c>
+      <c r="H15">
+        <v>57.703851</v>
+      </c>
+      <c r="I15">
+        <v>0.3846088157855053</v>
+      </c>
+      <c r="J15">
+        <v>0.459378160825299</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.169947333333333</v>
+      </c>
+      <c r="N15">
+        <v>6.509842000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.8056937070514454</v>
+      </c>
+      <c r="P15">
+        <v>0.8614914433031574</v>
+      </c>
+      <c r="Q15">
+        <v>41.738105866838</v>
+      </c>
+      <c r="R15">
+        <v>375.642952801542</v>
+      </c>
+      <c r="S15">
+        <v>0.3098769025548903</v>
+      </c>
+      <c r="T15">
+        <v>0.3957503547913368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>17.961187811487</v>
-      </c>
-      <c r="H9">
-        <v>17.961187811487</v>
-      </c>
-      <c r="I9">
-        <v>0.3834175482000475</v>
-      </c>
-      <c r="J9">
-        <v>0.3834175482000475</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.339184933884157</v>
-      </c>
-      <c r="N9">
-        <v>0.339184933884157</v>
-      </c>
-      <c r="O9">
-        <v>0.1454658267769855</v>
-      </c>
-      <c r="P9">
-        <v>0.1454658267769855</v>
-      </c>
-      <c r="Q9">
-        <v>6.092164300320145</v>
-      </c>
-      <c r="R9">
-        <v>6.092164300320145</v>
-      </c>
-      <c r="S9">
-        <v>0.05577415064972459</v>
-      </c>
-      <c r="T9">
-        <v>0.05577415064972459</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.234617</v>
+      </c>
+      <c r="H16">
+        <v>57.703851</v>
+      </c>
+      <c r="I16">
+        <v>0.3846088157855053</v>
+      </c>
+      <c r="J16">
+        <v>0.459378160825299</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4203924999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.8407849999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1560902361723793</v>
+      </c>
+      <c r="P16">
+        <v>0.1112667685571547</v>
+      </c>
+      <c r="Q16">
+        <v>8.086088727172498</v>
+      </c>
+      <c r="R16">
+        <v>48.516532363035</v>
+      </c>
+      <c r="S16">
+        <v>0.06003368088993865</v>
+      </c>
+      <c r="T16">
+        <v>0.05111352350075993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.021128</v>
+      </c>
+      <c r="H17">
+        <v>0.042256</v>
+      </c>
+      <c r="I17">
+        <v>0.0004224682539775113</v>
+      </c>
+      <c r="J17">
+        <v>0.0003363984071675534</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.102926</v>
+      </c>
+      <c r="N17">
+        <v>0.205852</v>
+      </c>
+      <c r="O17">
+        <v>0.03821605677617539</v>
+      </c>
+      <c r="P17">
+        <v>0.02724178813968781</v>
+      </c>
+      <c r="Q17">
+        <v>0.002174620528</v>
+      </c>
+      <c r="R17">
+        <v>0.008698482112</v>
+      </c>
+      <c r="S17">
+        <v>1.614507078013626E-05</v>
+      </c>
+      <c r="T17">
+        <v>9.164094138586926E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.021128</v>
+      </c>
+      <c r="H18">
+        <v>0.042256</v>
+      </c>
+      <c r="I18">
+        <v>0.0004224682539775113</v>
+      </c>
+      <c r="J18">
+        <v>0.0003363984071675534</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.169947333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.509842000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.8056937070514454</v>
+      </c>
+      <c r="P18">
+        <v>0.8614914433031574</v>
+      </c>
+      <c r="Q18">
+        <v>0.04584664725866667</v>
+      </c>
+      <c r="R18">
+        <v>0.275079883552</v>
+      </c>
+      <c r="S18">
+        <v>0.0003403800136586927</v>
+      </c>
+      <c r="T18">
+        <v>0.0002898043493156588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.021128</v>
+      </c>
+      <c r="H19">
+        <v>0.042256</v>
+      </c>
+      <c r="I19">
+        <v>0.0004224682539775113</v>
+      </c>
+      <c r="J19">
+        <v>0.0003363984071675534</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4203924999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.8407849999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1560902361723793</v>
+      </c>
+      <c r="P19">
+        <v>0.1112667685571547</v>
+      </c>
+      <c r="Q19">
+        <v>0.008882052739999998</v>
+      </c>
+      <c r="R19">
+        <v>0.03552821095999999</v>
+      </c>
+      <c r="S19">
+        <v>6.594316953868247E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.742996371330766E-05</v>
       </c>
     </row>
   </sheetData>
